--- a/db_feed/new_template_v6.xlsx
+++ b/db_feed/new_template_v6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Documents\GitHub\ofet-db\db_feed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D8355F4-A8B3-45EE-8D07-4B7D5CD202D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC83374A-CDF9-477A-BCA1-95AA0F11C9FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{F8B411A1-6901-4B9B-966C-09D3D94CB0BB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <sheet name="Dropdown Items" sheetId="5" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Solution Makeup'!$A$15:$E$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Solution Makeup'!$A$14:$E$44</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="414">
   <si>
     <t>UNIT</t>
   </si>
@@ -1234,12 +1234,6 @@
   </si>
   <si>
     <t>PubChemID</t>
-  </si>
-  <si>
-    <t>boiling_point</t>
-  </si>
-  <si>
-    <t>°C</t>
   </si>
   <si>
     <t>common_name</t>
@@ -2104,7 +2098,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2423,9 +2417,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2455,6 +2446,15 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2802,10 +2802,10 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="37.5" customHeight="1">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="128" t="s">
         <v>216</v>
       </c>
-      <c r="B2" s="129"/>
+      <c r="B2" s="128"/>
       <c r="C2" s="36"/>
       <c r="D2" s="36"/>
       <c r="E2" s="7"/>
@@ -2978,7 +2978,7 @@
     </row>
     <row r="20" spans="1:5" ht="15.75">
       <c r="A20" s="114" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B20" s="109" t="s">
         <v>131</v>
@@ -2993,10 +2993,10 @@
     </row>
     <row r="21" spans="1:5" ht="15.75">
       <c r="A21" s="114" t="s">
+        <v>394</v>
+      </c>
+      <c r="B21" s="86" t="s">
         <v>396</v>
-      </c>
-      <c r="B21" s="86" t="s">
-        <v>398</v>
       </c>
       <c r="C21" s="107"/>
       <c r="D21" s="107"/>
@@ -3032,7 +3032,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="48" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B26" s="102"/>
       <c r="C26" s="48"/>
@@ -3040,12 +3040,12 @@
         <v>227</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="48" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B27" s="102"/>
       <c r="C27" s="48"/>
@@ -3055,7 +3055,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="48" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B28" s="102"/>
       <c r="C28" s="48"/>
@@ -3065,7 +3065,7 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="48" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B29" s="102"/>
       <c r="C29" s="48"/>
@@ -3078,7 +3078,7 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="48" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B30" s="102"/>
       <c r="C30" s="48"/>
@@ -3088,7 +3088,7 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="48" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B31" s="102"/>
       <c r="C31" s="48"/>
@@ -3098,7 +3098,7 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="48" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B32" s="102"/>
       <c r="C32" s="48"/>
@@ -3108,7 +3108,7 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="48" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B33" s="102"/>
       <c r="C33" s="48"/>
@@ -3118,7 +3118,7 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="48" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B34" s="102"/>
       <c r="C34" s="48"/>
@@ -3128,7 +3128,7 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="48" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B35" s="102"/>
       <c r="C35" s="48"/>
@@ -3138,7 +3138,7 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="48" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B36" s="102"/>
       <c r="C36" s="48"/>
@@ -3148,7 +3148,7 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="48" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B37" s="102"/>
       <c r="C37" s="48"/>
@@ -3158,7 +3158,7 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="48" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B38" s="102"/>
       <c r="C38" s="48"/>
@@ -3171,7 +3171,7 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="48" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B39" s="112"/>
       <c r="C39" s="108"/>
@@ -3390,7 +3390,7 @@
         <v>33</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3402,7 +3402,7 @@
         <v>149</v>
       </c>
       <c r="B6" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -3410,13 +3410,13 @@
         <v>150</v>
       </c>
       <c r="B7" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="3"/>
       <c r="B8" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -3735,10 +3735,10 @@
         <v>317</v>
       </c>
       <c r="H32" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I32" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="J32">
         <v>7372</v>
@@ -3758,10 +3758,10 @@
         <v>290</v>
       </c>
       <c r="H33" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I33" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="J33">
         <v>76261</v>
@@ -3778,10 +3778,10 @@
         <v>291</v>
       </c>
       <c r="H34" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="I34" s="18" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="J34">
         <v>6399</v>
@@ -3796,10 +3796,10 @@
       </c>
       <c r="G35" s="18"/>
       <c r="H35" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="I35" s="18" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="J35">
         <v>8157</v>
@@ -3814,10 +3814,10 @@
       </c>
       <c r="G36" s="18"/>
       <c r="H36" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="I36" s="18" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J36">
         <v>21354</v>
@@ -3828,14 +3828,14 @@
         <v>50</v>
       </c>
       <c r="C37" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G37" s="18"/>
       <c r="H37" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="I37" s="18" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="J37">
         <v>74057</v>
@@ -3850,10 +3850,10 @@
       </c>
       <c r="G38" s="18"/>
       <c r="H38" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I38" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="J38">
         <v>21932446</v>
@@ -4017,7 +4017,7 @@
         <v>237</v>
       </c>
       <c r="H57" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -4025,7 +4025,7 @@
         <v>307</v>
       </c>
       <c r="B59" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C59" t="s">
         <v>121</v>
@@ -4043,7 +4043,7 @@
         <v>218</v>
       </c>
       <c r="H59" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -4051,7 +4051,7 @@
         <v>308</v>
       </c>
       <c r="B60" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C60" t="s">
         <v>122</v>
@@ -4069,7 +4069,7 @@
         <v>220</v>
       </c>
       <c r="H60" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -4077,7 +4077,7 @@
         <v>310</v>
       </c>
       <c r="B61" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C61" t="s">
         <v>123</v>
@@ -4102,10 +4102,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E40DAF9E-DFED-405D-ADE1-B4B8917B7A0A}">
-  <dimension ref="A1:E96"/>
+  <dimension ref="A1:E92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -4133,17 +4133,17 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="104.25" customHeight="1">
-      <c r="A2" s="130" t="s">
+      <c r="A2" s="129" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="131"/>
-      <c r="C2" s="131"/>
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
     </row>
     <row r="4" spans="1:5" ht="15.75">
       <c r="A4" s="96" t="s">
         <v>286</v>
       </c>
-      <c r="B4" s="127" t="s">
+      <c r="B4" s="126" t="s">
         <v>287</v>
       </c>
       <c r="C4" s="48"/>
@@ -4153,7 +4153,7 @@
       <c r="A5" s="69" t="s">
         <v>267</v>
       </c>
-      <c r="B5" s="126" t="s">
+      <c r="B5" s="125" t="s">
         <v>285</v>
       </c>
       <c r="C5" s="48"/>
@@ -4214,10 +4214,10 @@
       <c r="A11" s="69" t="s">
         <v>267</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="134" t="s">
         <v>278</v>
       </c>
-      <c r="C11" s="45"/>
+      <c r="C11" s="135"/>
       <c r="D11" s="42"/>
     </row>
     <row r="12" spans="1:5">
@@ -4227,7 +4227,7 @@
       <c r="B12" s="123" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="45"/>
+      <c r="C12" s="135"/>
       <c r="D12" s="43"/>
       <c r="E12" t="s">
         <v>68</v>
@@ -4237,227 +4237,234 @@
       <c r="A13" s="69" t="s">
         <v>279</v>
       </c>
-      <c r="B13" s="51"/>
-      <c r="C13" s="45"/>
+      <c r="B13" s="51">
+        <v>1140</v>
+      </c>
+      <c r="C13" s="135"/>
       <c r="D13" s="43"/>
       <c r="E13" s="35" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="69" t="s">
-        <v>346</v>
-      </c>
-      <c r="B14" s="51"/>
-      <c r="C14" s="124" t="s">
-        <v>347</v>
-      </c>
-      <c r="D14" s="43" t="s">
-        <v>227</v>
-      </c>
-      <c r="E14" s="35"/>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A14" s="73" t="s">
+        <v>305</v>
+      </c>
+      <c r="B14" s="55">
+        <v>1</v>
+      </c>
+      <c r="C14" s="136"/>
+      <c r="D14" s="44"/>
+      <c r="E14" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="69" t="s">
-        <v>305</v>
-      </c>
-      <c r="B15" s="51">
-        <v>1</v>
-      </c>
-      <c r="C15" s="45"/>
-      <c r="D15" s="43"/>
-      <c r="E15" t="s">
-        <v>282</v>
-      </c>
+      <c r="A15" s="48"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
     </row>
     <row r="16" spans="1:5" ht="16.5" thickBot="1">
-      <c r="A16" s="83" t="s">
-        <v>160</v>
-      </c>
-      <c r="B16" s="55"/>
-      <c r="C16" s="125"/>
-      <c r="D16" s="44" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="48"/>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-    </row>
-    <row r="18" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A18" s="121" t="s">
+      <c r="A16" s="121" t="s">
         <v>281</v>
       </c>
-      <c r="B18" s="48"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+    </row>
+    <row r="17" spans="1:4" ht="15.75">
+      <c r="A17" s="81"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="68"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="69"/>
+      <c r="B18" s="82"/>
       <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-    </row>
-    <row r="19" spans="1:4" ht="15.75">
-      <c r="A19" s="81"/>
-      <c r="B19" s="67"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="68"/>
+      <c r="D18" s="71"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="69"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="72"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="69"/>
-      <c r="B20" s="82"/>
+      <c r="B20" s="53"/>
       <c r="C20" s="48"/>
-      <c r="D20" s="71"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="69"/>
-      <c r="B21" s="50"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="72"/>
+      <c r="D20" s="72"/>
+    </row>
+    <row r="21" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A21" s="83"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="84"/>
+      <c r="D21" s="75"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="69"/>
-      <c r="B22" s="53"/>
+      <c r="A22" s="48"/>
+      <c r="B22" s="48"/>
       <c r="C22" s="48"/>
-      <c r="D22" s="72"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="69"/>
-      <c r="B23" s="53"/>
-      <c r="C23" s="91"/>
-      <c r="D23" s="72"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="69"/>
-      <c r="B24" s="53"/>
+      <c r="D22" s="48"/>
+    </row>
+    <row r="23" spans="1:4" ht="15.75">
+      <c r="A23" s="113" t="s">
+        <v>135</v>
+      </c>
+      <c r="B23" s="117"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
+    </row>
+    <row r="24" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A24" s="113" t="s">
+        <v>283</v>
+      </c>
+      <c r="B24" s="117"/>
       <c r="C24" s="48"/>
-      <c r="D24" s="72"/>
-    </row>
-    <row r="25" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A25" s="83"/>
-      <c r="B25" s="54"/>
-      <c r="C25" s="84"/>
-      <c r="D25" s="75"/>
+      <c r="D24" s="48"/>
+    </row>
+    <row r="25" spans="1:4" ht="15.75">
+      <c r="A25" s="81" t="s">
+        <v>266</v>
+      </c>
+      <c r="B25" s="122" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="122" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="41" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="48"/>
-      <c r="B26" s="48"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="48"/>
-    </row>
-    <row r="27" spans="1:4" ht="15.75">
-      <c r="A27" s="113" t="s">
-        <v>135</v>
-      </c>
-      <c r="B27" s="117"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
-    </row>
-    <row r="28" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A28" s="113" t="s">
-        <v>283</v>
-      </c>
-      <c r="B28" s="117"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="48"/>
-    </row>
-    <row r="29" spans="1:4" ht="15.75">
-      <c r="A29" s="81" t="s">
-        <v>266</v>
-      </c>
-      <c r="B29" s="122" t="s">
-        <v>71</v>
-      </c>
-      <c r="C29" s="122" t="s">
-        <v>72</v>
-      </c>
-      <c r="D29" s="41" t="s">
-        <v>167</v>
-      </c>
+      <c r="A26" s="69" t="s">
+        <v>267</v>
+      </c>
+      <c r="B26" s="40" t="s">
+        <v>268</v>
+      </c>
+      <c r="C26" s="45"/>
+      <c r="D26" s="42"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="69" t="s">
+        <v>346</v>
+      </c>
+      <c r="B27" s="123" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="45"/>
+      <c r="D27" s="42"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="69" t="s">
+        <v>329</v>
+      </c>
+      <c r="B28" s="51" t="str">
+        <f>_xlfn.XLOOKUP('Solution Makeup'!B27,'Dropdown Items'!$D$16:$D$25,'Dropdown Items'!$E$16:$E$25)</f>
+        <v>poly[2,5-(2-octyldodecyl)-3,6-diketopyrrolopyrrole-alt-5,5-(2,5-di(thien-2-yl)thieno [3,2-b]thiophene)]</v>
+      </c>
+      <c r="C28" s="45"/>
+      <c r="D28" s="42"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="69" t="s">
+        <v>330</v>
+      </c>
+      <c r="B29" s="51"/>
+      <c r="C29" s="45" t="s">
+        <v>347</v>
+      </c>
+      <c r="D29" s="43"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="69" t="s">
-        <v>267</v>
-      </c>
-      <c r="B30" s="40" t="s">
-        <v>268</v>
-      </c>
-      <c r="C30" s="45"/>
-      <c r="D30" s="42"/>
+        <v>331</v>
+      </c>
+      <c r="B30" s="51"/>
+      <c r="C30" s="45" t="s">
+        <v>347</v>
+      </c>
+      <c r="D30" s="43"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="69" t="s">
-        <v>348</v>
-      </c>
-      <c r="B31" s="123" t="s">
-        <v>62</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="B31" s="51"/>
       <c r="C31" s="45"/>
-      <c r="D31" s="42"/>
+      <c r="D31" s="43"/>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="69" t="s">
-        <v>329</v>
-      </c>
-      <c r="B32" s="51" t="str">
-        <f>_xlfn.XLOOKUP('Solution Makeup'!B31,'Dropdown Items'!$D$16:$D$25,'Dropdown Items'!$E$16:$E$25)</f>
-        <v>poly[2,5-(2-octyldodecyl)-3,6-diketopyrrolopyrrole-alt-5,5-(2,5-di(thien-2-yl)thieno [3,2-b]thiophene)]</v>
+        <v>363</v>
+      </c>
+      <c r="B32" s="51">
+        <v>1</v>
       </c>
       <c r="C32" s="45"/>
-      <c r="D32" s="42"/>
+      <c r="D32" s="43"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="69" t="s">
-        <v>330</v>
-      </c>
-      <c r="B33" s="51"/>
-      <c r="C33" s="45" t="s">
-        <v>349</v>
-      </c>
+      <c r="A33" s="69"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="45"/>
       <c r="D33" s="43"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="69" t="s">
-        <v>331</v>
-      </c>
-      <c r="B34" s="51"/>
-      <c r="C34" s="45" t="s">
-        <v>349</v>
-      </c>
+      <c r="A34" s="98" t="s">
+        <v>270</v>
+      </c>
+      <c r="B34" s="45"/>
+      <c r="C34" s="45"/>
       <c r="D34" s="43"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="69" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B35" s="51"/>
       <c r="C35" s="45"/>
-      <c r="D35" s="43"/>
+      <c r="D35" s="43" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="69" t="s">
-        <v>365</v>
-      </c>
-      <c r="B36" s="51">
-        <v>1</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="B36" s="51"/>
       <c r="C36" s="45"/>
-      <c r="D36" s="43"/>
+      <c r="D36" s="43" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="69"/>
-      <c r="B37" s="45"/>
+      <c r="A37" s="69" t="s">
+        <v>273</v>
+      </c>
+      <c r="B37" s="51"/>
       <c r="C37" s="45"/>
-      <c r="D37" s="43"/>
+      <c r="D37" s="43" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="98" t="s">
-        <v>270</v>
-      </c>
-      <c r="B38" s="45"/>
+      <c r="A38" s="99" t="s">
+        <v>274</v>
+      </c>
+      <c r="B38" s="51"/>
       <c r="C38" s="45"/>
-      <c r="D38" s="43"/>
+      <c r="D38" s="43" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="69" t="s">
-        <v>271</v>
+      <c r="A39" s="99" t="s">
+        <v>275</v>
       </c>
       <c r="B39" s="51"/>
       <c r="C39" s="45"/>
@@ -4465,103 +4472,87 @@
         <v>227</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="69" t="s">
-        <v>272</v>
-      </c>
-      <c r="B40" s="51"/>
-      <c r="C40" s="45"/>
-      <c r="D40" s="43" t="s">
+    <row r="40" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A40" s="100" t="s">
+        <v>276</v>
+      </c>
+      <c r="B40" s="55"/>
+      <c r="C40" s="124"/>
+      <c r="D40" s="44" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="69" t="s">
-        <v>273</v>
-      </c>
-      <c r="B41" s="51"/>
-      <c r="C41" s="45"/>
-      <c r="D41" s="43" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="99" t="s">
-        <v>274</v>
-      </c>
-      <c r="B42" s="51"/>
-      <c r="C42" s="45"/>
-      <c r="D42" s="43" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="99" t="s">
-        <v>275</v>
-      </c>
-      <c r="B43" s="51"/>
-      <c r="C43" s="45"/>
-      <c r="D43" s="43" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A44" s="100" t="s">
-        <v>276</v>
-      </c>
-      <c r="B44" s="55"/>
-      <c r="C44" s="125"/>
-      <c r="D44" s="44" t="s">
-        <v>227</v>
-      </c>
+      <c r="A41" s="48"/>
+      <c r="B41" s="48"/>
+      <c r="C41" s="48"/>
+      <c r="D41" s="48"/>
+    </row>
+    <row r="42" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A42" s="113" t="s">
+        <v>284</v>
+      </c>
+      <c r="B42" s="48"/>
+      <c r="C42" s="48"/>
+      <c r="D42" s="48"/>
+    </row>
+    <row r="43" spans="1:4" ht="15.75">
+      <c r="A43" s="81"/>
+      <c r="B43" s="122"/>
+      <c r="C43" s="122"/>
+      <c r="D43" s="41"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="69"/>
+      <c r="B44" s="40"/>
+      <c r="C44" s="45"/>
+      <c r="D44" s="42"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="48"/>
-      <c r="B45" s="48"/>
-      <c r="C45" s="48"/>
-      <c r="D45" s="48"/>
-    </row>
-    <row r="46" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A46" s="113" t="s">
-        <v>284</v>
-      </c>
-      <c r="B46" s="48"/>
-      <c r="C46" s="48"/>
-      <c r="D46" s="48"/>
-    </row>
-    <row r="47" spans="1:4" ht="15.75">
-      <c r="A47" s="81"/>
-      <c r="B47" s="122"/>
-      <c r="C47" s="122"/>
-      <c r="D47" s="41"/>
+      <c r="A45" s="69"/>
+      <c r="B45" s="123"/>
+      <c r="C45" s="45"/>
+      <c r="D45" s="42"/>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="69"/>
+      <c r="B46" s="51"/>
+      <c r="C46" s="45"/>
+      <c r="D46" s="42"/>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="69"/>
+      <c r="B47" s="51"/>
+      <c r="C47" s="45"/>
+      <c r="D47" s="43"/>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="69"/>
-      <c r="B48" s="40"/>
+      <c r="B48" s="51"/>
       <c r="C48" s="45"/>
-      <c r="D48" s="42"/>
+      <c r="D48" s="43"/>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="69"/>
-      <c r="B49" s="123"/>
+      <c r="B49" s="51"/>
       <c r="C49" s="45"/>
-      <c r="D49" s="42"/>
+      <c r="D49" s="43"/>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="69"/>
       <c r="B50" s="51"/>
       <c r="C50" s="45"/>
-      <c r="D50" s="42"/>
+      <c r="D50" s="43"/>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="69"/>
-      <c r="B51" s="51"/>
+      <c r="B51" s="45"/>
       <c r="C51" s="45"/>
       <c r="D51" s="43"/>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="69"/>
-      <c r="B52" s="51"/>
+      <c r="A52" s="98"/>
+      <c r="B52" s="45"/>
       <c r="C52" s="45"/>
       <c r="D52" s="43"/>
     </row>
@@ -4579,57 +4570,33 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="69"/>
-      <c r="B55" s="45"/>
+      <c r="B55" s="51"/>
       <c r="C55" s="45"/>
       <c r="D55" s="43"/>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="98"/>
-      <c r="B56" s="45"/>
+      <c r="A56" s="99"/>
+      <c r="B56" s="51"/>
       <c r="C56" s="45"/>
       <c r="D56" s="43"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="69"/>
+      <c r="A57" s="99"/>
       <c r="B57" s="51"/>
       <c r="C57" s="45"/>
       <c r="D57" s="43"/>
     </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="69"/>
-      <c r="B58" s="51"/>
-      <c r="C58" s="45"/>
-      <c r="D58" s="43"/>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="69"/>
-      <c r="B59" s="51"/>
-      <c r="C59" s="45"/>
-      <c r="D59" s="43"/>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="99"/>
-      <c r="B60" s="51"/>
-      <c r="C60" s="45"/>
-      <c r="D60" s="43"/>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="99"/>
-      <c r="B61" s="51"/>
-      <c r="C61" s="45"/>
-      <c r="D61" s="43"/>
-    </row>
-    <row r="62" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A62" s="100"/>
-      <c r="B62" s="55"/>
-      <c r="C62" s="125"/>
-      <c r="D62" s="44"/>
-    </row>
-    <row r="96" spans="1:2" ht="26.25">
-      <c r="A96" s="62" t="s">
+    <row r="58" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A58" s="100"/>
+      <c r="B58" s="55"/>
+      <c r="C58" s="124"/>
+      <c r="D58" s="44"/>
+    </row>
+    <row r="92" spans="1:2" ht="26.25">
+      <c r="A92" s="62" t="s">
         <v>215</v>
       </c>
-      <c r="B96" s="62" t="s">
+      <c r="B92" s="62" t="s">
         <v>214</v>
       </c>
     </row>
@@ -4649,13 +4616,13 @@
           <x14:formula1>
             <xm:f>'Dropdown Items'!$A$17:$A$25</xm:f>
           </x14:formula1>
-          <xm:sqref>B12 B21</xm:sqref>
+          <xm:sqref>B12 B19</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{8AE52FC6-9FFA-4D22-B5C8-489BB6B0469B}">
           <x14:formula1>
             <xm:f>'Dropdown Items'!$D$16:$D$25</xm:f>
           </x14:formula1>
-          <xm:sqref>B31 B49</xm:sqref>
+          <xm:sqref>B27 B45</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4695,19 +4662,19 @@
       </c>
       <c r="E1" s="6"/>
       <c r="F1" s="22"/>
-      <c r="G1" s="132" t="s">
+      <c r="G1" s="131" t="s">
         <v>73</v>
       </c>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
-      <c r="J1" s="134"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="133"/>
     </row>
     <row r="2" spans="1:10" ht="130.15" customHeight="1">
-      <c r="A2" s="130" t="s">
+      <c r="A2" s="129" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="131"/>
-      <c r="C2" s="131"/>
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="G2" s="3"/>
@@ -5086,7 +5053,7 @@
       </c>
       <c r="H20" s="53"/>
       <c r="I20" s="48" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="J20" s="72" t="s">
         <v>260</v>
@@ -5981,19 +5948,19 @@
         <v>167</v>
       </c>
       <c r="E1" s="38"/>
-      <c r="G1" s="132" t="s">
+      <c r="G1" s="131" t="s">
         <v>73</v>
       </c>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
-      <c r="J1" s="134"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="133"/>
     </row>
     <row r="2" spans="1:10" ht="130.5" customHeight="1">
-      <c r="A2" s="130" t="s">
+      <c r="A2" s="129" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="131"/>
-      <c r="C2" s="131"/>
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -6409,10 +6376,10 @@
         <v>167</v>
       </c>
       <c r="G26" s="69" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="H26" s="50" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="I26" s="48"/>
       <c r="J26" s="72" t="s">
@@ -6481,10 +6448,10 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="69" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B30" s="50" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C30" s="48"/>
       <c r="D30" s="72" t="s">
@@ -6495,7 +6462,7 @@
       </c>
       <c r="H30" s="53"/>
       <c r="I30" s="48" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="J30" s="72" t="s">
         <v>260</v>
@@ -6569,7 +6536,7 @@
       </c>
       <c r="B34" s="53"/>
       <c r="C34" s="48" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D34" s="72" t="s">
         <v>260</v>
@@ -6668,7 +6635,7 @@
         <v>215</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -6745,19 +6712,19 @@
       <c r="D1" t="s">
         <v>167</v>
       </c>
-      <c r="F1" s="132" t="s">
+      <c r="F1" s="131" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="134"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="133"/>
     </row>
     <row r="2" spans="1:10" ht="93" customHeight="1">
-      <c r="A2" s="130" t="s">
+      <c r="A2" s="129" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="131"/>
-      <c r="C2" s="131"/>
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
       <c r="D2" s="52"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -7002,7 +6969,7 @@
       </c>
       <c r="G18" s="53"/>
       <c r="H18" s="48" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="I18" s="71" t="s">
         <v>260</v>
@@ -7204,7 +7171,7 @@
       </c>
       <c r="G37" s="53"/>
       <c r="H37" s="48" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="I37" s="71" t="s">
         <v>260</v>
@@ -7359,19 +7326,19 @@
         <v>167</v>
       </c>
       <c r="E1" s="38"/>
-      <c r="G1" s="132" t="s">
+      <c r="G1" s="131" t="s">
         <v>73</v>
       </c>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
-      <c r="J1" s="134"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="133"/>
     </row>
     <row r="2" spans="1:10" ht="129.75" customHeight="1">
-      <c r="A2" s="130" t="s">
+      <c r="A2" s="129" t="s">
         <v>192</v>
       </c>
-      <c r="B2" s="131"/>
-      <c r="C2" s="131"/>
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -7473,7 +7440,7 @@
       </c>
       <c r="H10" s="53"/>
       <c r="I10" s="48" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="J10" s="72" t="s">
         <v>260</v>
@@ -7734,30 +7701,30 @@
         <v>94</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C1" s="67" t="s">
+        <v>389</v>
+      </c>
+      <c r="D1" s="67" t="s">
+        <v>390</v>
+      </c>
+      <c r="E1" s="67" t="s">
         <v>391</v>
       </c>
-      <c r="D1" s="67" t="s">
+      <c r="F1" s="67" t="s">
         <v>392</v>
-      </c>
-      <c r="E1" s="67" t="s">
-        <v>393</v>
-      </c>
-      <c r="F1" s="67" t="s">
-        <v>394</v>
       </c>
       <c r="G1" s="77" t="s">
         <v>167</v>
       </c>
       <c r="H1"/>
-      <c r="I1" s="132" t="s">
+      <c r="I1" s="131" t="s">
         <v>73</v>
       </c>
-      <c r="J1" s="133"/>
-      <c r="K1" s="133"/>
-      <c r="L1" s="134"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="133"/>
     </row>
     <row r="2" spans="1:15" s="8" customFormat="1" ht="15.75">
       <c r="A2" s="57" t="s">
@@ -7794,22 +7761,22 @@
     </row>
     <row r="5" spans="1:15" s="8" customFormat="1" ht="16.899999999999999" customHeight="1" thickBot="1">
       <c r="I5" s="76" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="J5" s="67" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K5" s="67" t="s">
+        <v>389</v>
+      </c>
+      <c r="L5" s="67" t="s">
+        <v>390</v>
+      </c>
+      <c r="M5" s="67" t="s">
         <v>391</v>
       </c>
-      <c r="L5" s="67" t="s">
+      <c r="N5" s="67" t="s">
         <v>392</v>
-      </c>
-      <c r="M5" s="67" t="s">
-        <v>393</v>
-      </c>
-      <c r="N5" s="67" t="s">
-        <v>394</v>
       </c>
       <c r="O5" s="77" t="s">
         <v>167</v>
@@ -7817,22 +7784,22 @@
     </row>
     <row r="6" spans="1:15" ht="15.75">
       <c r="A6" s="76" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B6" s="67" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C6" s="67" t="s">
+        <v>389</v>
+      </c>
+      <c r="D6" s="67" t="s">
+        <v>390</v>
+      </c>
+      <c r="E6" s="67" t="s">
         <v>391</v>
       </c>
-      <c r="D6" s="67" t="s">
+      <c r="F6" s="67" t="s">
         <v>392</v>
-      </c>
-      <c r="E6" s="67" t="s">
-        <v>393</v>
-      </c>
-      <c r="F6" s="67" t="s">
-        <v>394</v>
       </c>
       <c r="G6" s="77" t="s">
         <v>167</v>
@@ -7862,7 +7829,7 @@
         <v>217</v>
       </c>
       <c r="J7" s="70" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="K7" s="48"/>
       <c r="L7" s="48"/>
@@ -7875,7 +7842,7 @@
         <v>217</v>
       </c>
       <c r="B8" s="70" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C8" s="48"/>
       <c r="D8" s="48"/>
@@ -7908,7 +7875,7 @@
         <v>227</v>
       </c>
       <c r="H9" s="3"/>
-      <c r="I9" s="128" t="s">
+      <c r="I9" s="127" t="s">
         <v>218</v>
       </c>
       <c r="J9" s="53">
@@ -7925,7 +7892,7 @@
       </c>
     </row>
     <row r="10" spans="1:15" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
-      <c r="A10" s="128" t="s">
+      <c r="A10" s="127" t="s">
         <v>218</v>
       </c>
       <c r="B10" s="53">
@@ -7941,7 +7908,7 @@
         <v>6.0000000000000002E-5</v>
       </c>
       <c r="F10" s="50" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G10" s="71" t="s">
         <v>225</v>
@@ -7975,8 +7942,8 @@
         <v>227</v>
       </c>
       <c r="H11" s="3"/>
-      <c r="I11" s="128" t="s">
-        <v>388</v>
+      <c r="I11" s="127" t="s">
+        <v>386</v>
       </c>
       <c r="J11" s="53"/>
       <c r="K11" s="48"/>
@@ -7988,8 +7955,8 @@
       </c>
     </row>
     <row r="12" spans="1:15" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
-      <c r="A12" s="128" t="s">
-        <v>388</v>
+      <c r="A12" s="127" t="s">
+        <v>386</v>
       </c>
       <c r="B12" s="53">
         <v>2.5</v>
@@ -8002,7 +7969,7 @@
         <v>0.1</v>
       </c>
       <c r="F12" s="50" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G12" s="71" t="s">
         <v>225</v>
@@ -8217,7 +8184,7 @@
         <v>227</v>
       </c>
       <c r="H20" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="I20" s="69" t="s">
         <v>245</v>
@@ -8324,7 +8291,7 @@
         <v>243</v>
       </c>
       <c r="I24" s="69" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="J24" s="63"/>
       <c r="K24" s="48"/>
@@ -8337,7 +8304,7 @@
     </row>
     <row r="25" spans="1:15" s="8" customFormat="1" ht="16.899999999999999" customHeight="1" thickBot="1">
       <c r="A25" s="69" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B25" s="63"/>
       <c r="C25" s="48"/>
@@ -8750,37 +8717,37 @@
         <v>241</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C1" s="67" t="s">
+        <v>389</v>
+      </c>
+      <c r="D1" s="67" t="s">
+        <v>390</v>
+      </c>
+      <c r="E1" s="67" t="s">
         <v>391</v>
       </c>
-      <c r="D1" s="67" t="s">
+      <c r="F1" s="67" t="s">
         <v>392</v>
-      </c>
-      <c r="E1" s="67" t="s">
-        <v>393</v>
-      </c>
-      <c r="F1" s="67" t="s">
-        <v>394</v>
       </c>
       <c r="G1" t="s">
         <v>167</v>
       </c>
-      <c r="I1" s="132" t="s">
+      <c r="I1" s="131" t="s">
         <v>73</v>
       </c>
-      <c r="J1" s="133"/>
-      <c r="K1" s="133"/>
-      <c r="L1" s="133"/>
-      <c r="M1" s="134"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="132"/>
+      <c r="M1" s="133"/>
     </row>
     <row r="2" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="8" customFormat="1" ht="90" customHeight="1">
-      <c r="A2" s="129" t="s">
-        <v>386</v>
-      </c>
-      <c r="B2" s="129"/>
-      <c r="C2" s="129"/>
+      <c r="A2" s="128" t="s">
+        <v>384</v>
+      </c>
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
@@ -8825,19 +8792,19 @@
         <v>97</v>
       </c>
       <c r="B5" s="67" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C5" s="67" t="s">
+        <v>389</v>
+      </c>
+      <c r="D5" s="67" t="s">
+        <v>390</v>
+      </c>
+      <c r="E5" s="67" t="s">
         <v>391</v>
       </c>
-      <c r="D5" s="67" t="s">
+      <c r="F5" s="67" t="s">
         <v>392</v>
-      </c>
-      <c r="E5" s="67" t="s">
-        <v>393</v>
-      </c>
-      <c r="F5" s="67" t="s">
-        <v>394</v>
       </c>
       <c r="G5" s="68" t="s">
         <v>167</v>
@@ -8847,19 +8814,19 @@
         <v>97</v>
       </c>
       <c r="J5" s="67" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K5" s="67" t="s">
+        <v>389</v>
+      </c>
+      <c r="L5" s="67" t="s">
+        <v>390</v>
+      </c>
+      <c r="M5" s="67" t="s">
         <v>391</v>
       </c>
-      <c r="L5" s="67" t="s">
+      <c r="N5" s="67" t="s">
         <v>392</v>
-      </c>
-      <c r="M5" s="67" t="s">
-        <v>393</v>
-      </c>
-      <c r="N5" s="67" t="s">
-        <v>394</v>
       </c>
       <c r="O5" s="68" t="s">
         <v>167</v>
@@ -11043,7 +11010,7 @@
     </row>
     <row r="11" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380">
       <c r="A11" s="69" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B11" s="49"/>
       <c r="C11" s="48"/>
@@ -11054,7 +11021,7 @@
         <v>227</v>
       </c>
       <c r="I11" s="69" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="J11" s="49"/>
       <c r="K11" s="48"/>
@@ -11110,19 +11077,19 @@
         <v>101</v>
       </c>
       <c r="B14" s="67" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C14" s="67" t="s">
+        <v>389</v>
+      </c>
+      <c r="D14" s="67" t="s">
+        <v>390</v>
+      </c>
+      <c r="E14" s="67" t="s">
         <v>391</v>
       </c>
-      <c r="D14" s="67" t="s">
+      <c r="F14" s="67" t="s">
         <v>392</v>
-      </c>
-      <c r="E14" s="67" t="s">
-        <v>393</v>
-      </c>
-      <c r="F14" s="67" t="s">
-        <v>394</v>
       </c>
       <c r="G14" s="68" t="s">
         <v>167</v>
@@ -11151,19 +11118,19 @@
         <v>98</v>
       </c>
       <c r="J15" s="67" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K15" s="67" t="s">
+        <v>389</v>
+      </c>
+      <c r="L15" s="67" t="s">
+        <v>390</v>
+      </c>
+      <c r="M15" s="67" t="s">
         <v>391</v>
       </c>
-      <c r="L15" s="67" t="s">
+      <c r="N15" s="67" t="s">
         <v>392</v>
-      </c>
-      <c r="M15" s="67" t="s">
-        <v>393</v>
-      </c>
-      <c r="N15" s="67" t="s">
-        <v>394</v>
       </c>
       <c r="O15" s="68" t="s">
         <v>167</v>
@@ -11195,7 +11162,7 @@
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="69" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B17" s="49">
         <v>27</v>
@@ -11223,7 +11190,7 @@
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="69" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B18" s="49"/>
       <c r="C18" s="48"/>
@@ -11234,7 +11201,7 @@
         <v>225</v>
       </c>
       <c r="I18" s="69" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="J18" s="49"/>
       <c r="K18" s="48"/>
@@ -11247,7 +11214,7 @@
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="69" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B19" s="49"/>
       <c r="C19" s="48" t="s">
@@ -11275,7 +11242,7 @@
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="69" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B20" s="49"/>
       <c r="C20" s="48"/>
@@ -11286,7 +11253,7 @@
         <v>225</v>
       </c>
       <c r="I20" s="69" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="J20" s="49"/>
       <c r="K20" s="48"/>
@@ -11299,7 +11266,7 @@
     </row>
     <row r="21" spans="1:15" ht="15.75" thickBot="1">
       <c r="A21" s="69" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B21" s="49"/>
       <c r="C21" s="48" t="s">
@@ -11325,7 +11292,7 @@
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="69" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B22" s="49"/>
       <c r="C22" s="48"/>
@@ -11345,7 +11312,7 @@
     </row>
     <row r="23" spans="1:15" ht="15.75" thickBot="1">
       <c r="A23" s="69" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B23" s="49"/>
       <c r="C23" s="48" t="s">
@@ -11367,7 +11334,7 @@
     </row>
     <row r="24" spans="1:15" ht="15.75">
       <c r="A24" s="69" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B24" s="49"/>
       <c r="C24" s="48"/>
@@ -11381,19 +11348,19 @@
         <v>99</v>
       </c>
       <c r="J24" s="67" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K24" s="67" t="s">
+        <v>389</v>
+      </c>
+      <c r="L24" s="67" t="s">
+        <v>390</v>
+      </c>
+      <c r="M24" s="67" t="s">
         <v>391</v>
       </c>
-      <c r="L24" s="67" t="s">
+      <c r="N24" s="67" t="s">
         <v>392</v>
-      </c>
-      <c r="M24" s="67" t="s">
-        <v>393</v>
-      </c>
-      <c r="N24" s="67" t="s">
-        <v>394</v>
       </c>
       <c r="O24" s="68" t="s">
         <v>167</v>
@@ -11451,7 +11418,7 @@
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="69" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B27" s="49"/>
       <c r="C27" s="48"/>
@@ -11546,7 +11513,7 @@
     </row>
     <row r="32" spans="1:15">
       <c r="I32" s="69" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="J32" s="49"/>
       <c r="K32" s="48"/>
@@ -11593,19 +11560,19 @@
         <v>101</v>
       </c>
       <c r="J36" s="67" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K36" s="67" t="s">
+        <v>389</v>
+      </c>
+      <c r="L36" s="67" t="s">
+        <v>390</v>
+      </c>
+      <c r="M36" s="67" t="s">
         <v>391</v>
       </c>
-      <c r="L36" s="67" t="s">
+      <c r="N36" s="67" t="s">
         <v>392</v>
-      </c>
-      <c r="M36" s="67" t="s">
-        <v>393</v>
-      </c>
-      <c r="N36" s="67" t="s">
-        <v>394</v>
       </c>
       <c r="O36" s="68" t="s">
         <v>167</v>
@@ -11639,7 +11606,7 @@
     </row>
     <row r="39" spans="9:15">
       <c r="I39" s="69" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="J39" s="49"/>
       <c r="K39" s="48" t="s">
@@ -11654,7 +11621,7 @@
     </row>
     <row r="40" spans="9:15">
       <c r="I40" s="69" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="J40" s="49"/>
       <c r="K40" s="48"/>
@@ -11667,7 +11634,7 @@
     </row>
     <row r="41" spans="9:15">
       <c r="I41" s="69" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="J41" s="49"/>
       <c r="K41" s="48" t="s">
@@ -11682,7 +11649,7 @@
     </row>
     <row r="42" spans="9:15">
       <c r="I42" s="69" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="J42" s="49"/>
       <c r="K42" s="48"/>
@@ -11695,7 +11662,7 @@
     </row>
     <row r="43" spans="9:15">
       <c r="I43" s="69" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="J43" s="49"/>
       <c r="K43" s="48" t="s">
@@ -11710,7 +11677,7 @@
     </row>
     <row r="44" spans="9:15">
       <c r="I44" s="69" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="J44" s="49"/>
       <c r="K44" s="48"/>
@@ -11723,7 +11690,7 @@
     </row>
     <row r="45" spans="9:15">
       <c r="I45" s="69" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="J45" s="49"/>
       <c r="K45" s="48" t="s">
@@ -11738,7 +11705,7 @@
     </row>
     <row r="46" spans="9:15">
       <c r="I46" s="69" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="J46" s="49"/>
       <c r="K46" s="48"/>
@@ -11779,7 +11746,7 @@
     </row>
     <row r="49" spans="1:15">
       <c r="I49" s="69" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="J49" s="49"/>
       <c r="K49" s="48"/>
@@ -11817,19 +11784,19 @@
         <v>103</v>
       </c>
       <c r="J52" s="67" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K52" s="67" t="s">
+        <v>389</v>
+      </c>
+      <c r="L52" s="67" t="s">
+        <v>390</v>
+      </c>
+      <c r="M52" s="67" t="s">
         <v>391</v>
       </c>
-      <c r="L52" s="67" t="s">
+      <c r="N52" s="67" t="s">
         <v>392</v>
-      </c>
-      <c r="M52" s="67" t="s">
-        <v>393</v>
-      </c>
-      <c r="N52" s="67" t="s">
-        <v>394</v>
       </c>
       <c r="O52" s="68" t="s">
         <v>167</v>
@@ -11878,7 +11845,7 @@
     </row>
     <row r="56" spans="1:15">
       <c r="I56" s="69" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="J56" s="49"/>
       <c r="K56" s="48"/>

--- a/db_feed/new_template_v6.xlsx
+++ b/db_feed/new_template_v6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Documents\GitHub\ofet-db\db_feed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC83374A-CDF9-477A-BCA1-95AA0F11C9FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B9BEFE-A7E9-4747-B5BA-6FA268BD3AFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{F8B411A1-6901-4B9B-966C-09D3D94CB0BB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="4" xr2:uid="{F8B411A1-6901-4B9B-966C-09D3D94CB0BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Origin" sheetId="9" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="416">
   <si>
     <t>UNIT</t>
   </si>
@@ -1460,6 +1460,12 @@
   </si>
   <si>
     <t>date_of_citation</t>
+  </si>
+  <si>
+    <t>Plasma Treatment #</t>
+  </si>
+  <si>
+    <t>plasma_treatment</t>
   </si>
 </sst>
 </file>
@@ -2098,7 +2104,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2429,6 +2435,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2446,15 +2455,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2802,10 +2802,10 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="37.5" customHeight="1">
-      <c r="A2" s="128" t="s">
+      <c r="A2" s="129" t="s">
         <v>216</v>
       </c>
-      <c r="B2" s="128"/>
+      <c r="B2" s="129"/>
       <c r="C2" s="36"/>
       <c r="D2" s="36"/>
       <c r="E2" s="7"/>
@@ -4104,8 +4104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E40DAF9E-DFED-405D-ADE1-B4B8917B7A0A}">
   <dimension ref="A1:E92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -4133,11 +4133,11 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="104.25" customHeight="1">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="130" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="130"/>
-      <c r="C2" s="130"/>
+      <c r="B2" s="131"/>
+      <c r="C2" s="131"/>
     </row>
     <row r="4" spans="1:5" ht="15.75">
       <c r="A4" s="96" t="s">
@@ -4214,10 +4214,10 @@
       <c r="A11" s="69" t="s">
         <v>267</v>
       </c>
-      <c r="B11" s="134" t="s">
+      <c r="B11" s="40" t="s">
         <v>278</v>
       </c>
-      <c r="C11" s="135"/>
+      <c r="C11" s="45"/>
       <c r="D11" s="42"/>
     </row>
     <row r="12" spans="1:5">
@@ -4227,7 +4227,7 @@
       <c r="B12" s="123" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="135"/>
+      <c r="C12" s="45"/>
       <c r="D12" s="43"/>
       <c r="E12" t="s">
         <v>68</v>
@@ -4240,7 +4240,7 @@
       <c r="B13" s="51">
         <v>1140</v>
       </c>
-      <c r="C13" s="135"/>
+      <c r="C13" s="45"/>
       <c r="D13" s="43"/>
       <c r="E13" s="35" t="s">
         <v>1</v>
@@ -4253,7 +4253,7 @@
       <c r="B14" s="55">
         <v>1</v>
       </c>
-      <c r="C14" s="136"/>
+      <c r="C14" s="128"/>
       <c r="D14" s="44"/>
       <c r="E14" t="s">
         <v>282</v>
@@ -4662,19 +4662,19 @@
       </c>
       <c r="E1" s="6"/>
       <c r="F1" s="22"/>
-      <c r="G1" s="131" t="s">
+      <c r="G1" s="132" t="s">
         <v>73</v>
       </c>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="134"/>
     </row>
     <row r="2" spans="1:10" ht="130.15" customHeight="1">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="130" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="130"/>
-      <c r="C2" s="130"/>
+      <c r="B2" s="131"/>
+      <c r="C2" s="131"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="G2" s="3"/>
@@ -5925,9 +5925,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA77467B-0896-49AB-8867-B82D0CAEB0D4}">
   <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L25" sqref="L25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5948,19 +5948,19 @@
         <v>167</v>
       </c>
       <c r="E1" s="38"/>
-      <c r="G1" s="131" t="s">
+      <c r="G1" s="132" t="s">
         <v>73</v>
       </c>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="134"/>
     </row>
     <row r="2" spans="1:10" ht="130.5" customHeight="1">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="130" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="130"/>
-      <c r="C2" s="130"/>
+      <c r="B2" s="131"/>
+      <c r="C2" s="131"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -6518,7 +6518,7 @@
         <v>260</v>
       </c>
       <c r="G33" s="81" t="s">
-        <v>88</v>
+        <v>414</v>
       </c>
       <c r="H33" s="67" t="s">
         <v>71</v>
@@ -6544,8 +6544,8 @@
       <c r="G34" s="69" t="s">
         <v>151</v>
       </c>
-      <c r="H34" s="53" t="s">
-        <v>187</v>
+      <c r="H34" s="82" t="s">
+        <v>415</v>
       </c>
       <c r="I34" s="48"/>
       <c r="J34" s="71"/>
@@ -6568,65 +6568,229 @@
     </row>
     <row r="36" spans="1:10">
       <c r="G36" s="69" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="H36" s="53"/>
-      <c r="I36" s="48"/>
+      <c r="I36" s="48" t="s">
+        <v>110</v>
+      </c>
       <c r="J36" s="72" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="G37" s="69" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="H37" s="53"/>
-      <c r="I37" s="48" t="s">
-        <v>13</v>
-      </c>
+      <c r="I37" s="48"/>
       <c r="J37" s="72" t="s">
-        <v>260</v>
+        <v>227</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="G38" s="69" t="s">
-        <v>190</v>
-      </c>
-      <c r="H38" s="53"/>
-      <c r="I38" s="48" t="s">
-        <v>81</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="H38" s="56"/>
+      <c r="I38" s="48"/>
       <c r="J38" s="72" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="G39" s="69" t="s">
+        <v>157</v>
+      </c>
+      <c r="H39" s="53"/>
+      <c r="I39" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="J39" s="72" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="16.5" thickBot="1">
+      <c r="G40" s="83" t="s">
+        <v>160</v>
+      </c>
+      <c r="H40" s="54"/>
+      <c r="I40" s="84"/>
+      <c r="J40" s="75" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="15.75" thickBot="1"/>
+    <row r="44" spans="1:10" ht="15.75">
+      <c r="G44" s="81" t="s">
+        <v>193</v>
+      </c>
+      <c r="H44" s="67" t="s">
+        <v>265</v>
+      </c>
+      <c r="I44" s="67" t="s">
+        <v>72</v>
+      </c>
+      <c r="J44" s="68" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="G45" s="69" t="s">
+        <v>151</v>
+      </c>
+      <c r="H45" s="82" t="s">
+        <v>194</v>
+      </c>
+      <c r="I45" s="48"/>
+      <c r="J45" s="71"/>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="G46" s="69" t="s">
+        <v>159</v>
+      </c>
+      <c r="H46" s="50"/>
+      <c r="I46" s="48"/>
+      <c r="J46" s="71"/>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="G47" s="69" t="s">
+        <v>158</v>
+      </c>
+      <c r="H47" s="56"/>
+      <c r="I47" s="48"/>
+      <c r="J47" s="72" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="G48" s="69" t="s">
+        <v>161</v>
+      </c>
+      <c r="H48" s="53"/>
+      <c r="I48" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="J48" s="72" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="49" spans="7:10">
+      <c r="G49" s="69" t="s">
+        <v>162</v>
+      </c>
+      <c r="H49" s="53"/>
+      <c r="I49" s="48" t="s">
+        <v>364</v>
+      </c>
+      <c r="J49" s="72" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="50" spans="7:10" ht="16.5" thickBot="1">
+      <c r="G50" s="83" t="s">
+        <v>160</v>
+      </c>
+      <c r="H50" s="54"/>
+      <c r="I50" s="84"/>
+      <c r="J50" s="75" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="52" spans="7:10" ht="15.75" thickBot="1"/>
+    <row r="53" spans="7:10" ht="15.75">
+      <c r="G53" s="81" t="s">
+        <v>88</v>
+      </c>
+      <c r="H53" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="I53" s="67" t="s">
+        <v>72</v>
+      </c>
+      <c r="J53" s="68" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="54" spans="7:10">
+      <c r="G54" s="69" t="s">
+        <v>151</v>
+      </c>
+      <c r="H54" s="53" t="s">
+        <v>187</v>
+      </c>
+      <c r="I54" s="48"/>
+      <c r="J54" s="71"/>
+    </row>
+    <row r="55" spans="7:10">
+      <c r="G55" s="69" t="s">
+        <v>159</v>
+      </c>
+      <c r="H55" s="50"/>
+      <c r="I55" s="48"/>
+      <c r="J55" s="71"/>
+    </row>
+    <row r="56" spans="7:10">
+      <c r="G56" s="69" t="s">
+        <v>188</v>
+      </c>
+      <c r="H56" s="53"/>
+      <c r="I56" s="48"/>
+      <c r="J56" s="72" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="57" spans="7:10">
+      <c r="G57" s="69" t="s">
+        <v>189</v>
+      </c>
+      <c r="H57" s="53"/>
+      <c r="I57" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="J57" s="72" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="58" spans="7:10">
+      <c r="G58" s="69" t="s">
+        <v>190</v>
+      </c>
+      <c r="H58" s="53"/>
+      <c r="I58" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="J58" s="72" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="59" spans="7:10">
+      <c r="G59" s="69" t="s">
         <v>208</v>
       </c>
-      <c r="H39" s="63"/>
-      <c r="I39" s="48"/>
-      <c r="J39" s="71" t="s">
+      <c r="H59" s="63"/>
+      <c r="I59" s="48"/>
+      <c r="J59" s="71" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
-      <c r="G40" s="69" t="s">
+    <row r="60" spans="7:10">
+      <c r="G60" s="69" t="s">
         <v>209</v>
       </c>
-      <c r="H40" s="63"/>
-      <c r="I40" s="48"/>
-      <c r="J40" s="71" t="s">
+      <c r="H60" s="63"/>
+      <c r="I60" s="48"/>
+      <c r="J60" s="71" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="16.5" thickBot="1">
-      <c r="G41" s="83" t="s">
+    <row r="61" spans="7:10" ht="16.5" thickBot="1">
+      <c r="G61" s="83" t="s">
         <v>160</v>
       </c>
-      <c r="H41" s="54"/>
-      <c r="I41" s="84"/>
-      <c r="J41" s="75" t="s">
+      <c r="H61" s="54"/>
+      <c r="I61" s="84"/>
+      <c r="J61" s="75" t="s">
         <v>227</v>
       </c>
     </row>
@@ -6651,13 +6815,13 @@
           <x14:formula1>
             <xm:f>'Dropdown Items'!$C$49:$C$53</xm:f>
           </x14:formula1>
-          <xm:sqref>B10 H8 H25 B29</xm:sqref>
+          <xm:sqref>B10 H8 H25 B29 H47 H38</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{9D07125F-6B5F-4608-BF58-E5496A9289C9}">
           <x14:formula1>
             <xm:f>'Dropdown Items'!$G$16:$G$25</xm:f>
           </x14:formula1>
-          <xm:sqref>B9 H16 H24 H35 H7 B19 B28</xm:sqref>
+          <xm:sqref>B9 H16 H24 H55 H7 B19 B28 H46 H35</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{C92B0664-7E77-4AD9-9D78-A9912FEAF99B}">
           <x14:formula1>
@@ -6712,19 +6876,19 @@
       <c r="D1" t="s">
         <v>167</v>
       </c>
-      <c r="F1" s="131" t="s">
+      <c r="F1" s="132" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="134"/>
     </row>
     <row r="2" spans="1:10" ht="93" customHeight="1">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="130" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="130"/>
-      <c r="C2" s="130"/>
+      <c r="B2" s="131"/>
+      <c r="C2" s="131"/>
       <c r="D2" s="52"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -7303,7 +7467,7 @@
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="G5" sqref="G5:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7326,19 +7490,19 @@
         <v>167</v>
       </c>
       <c r="E1" s="38"/>
-      <c r="G1" s="131" t="s">
+      <c r="G1" s="132" t="s">
         <v>73</v>
       </c>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="134"/>
     </row>
     <row r="2" spans="1:10" ht="129.75" customHeight="1">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="130" t="s">
         <v>192</v>
       </c>
-      <c r="B2" s="130"/>
-      <c r="C2" s="130"/>
+      <c r="B2" s="131"/>
+      <c r="C2" s="131"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -7719,12 +7883,12 @@
         <v>167</v>
       </c>
       <c r="H1"/>
-      <c r="I1" s="131" t="s">
+      <c r="I1" s="132" t="s">
         <v>73</v>
       </c>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="133"/>
+      <c r="J1" s="133"/>
+      <c r="K1" s="133"/>
+      <c r="L1" s="134"/>
     </row>
     <row r="2" spans="1:15" s="8" customFormat="1" ht="15.75">
       <c r="A2" s="57" t="s">
@@ -8734,20 +8898,20 @@
       <c r="G1" t="s">
         <v>167</v>
       </c>
-      <c r="I1" s="131" t="s">
+      <c r="I1" s="132" t="s">
         <v>73</v>
       </c>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132"/>
-      <c r="M1" s="133"/>
+      <c r="J1" s="133"/>
+      <c r="K1" s="133"/>
+      <c r="L1" s="133"/>
+      <c r="M1" s="134"/>
     </row>
     <row r="2" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="8" customFormat="1" ht="90" customHeight="1">
-      <c r="A2" s="128" t="s">
+      <c r="A2" s="129" t="s">
         <v>384</v>
       </c>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
+      <c r="B2" s="129"/>
+      <c r="C2" s="129"/>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
